--- a/Code/Results/Cases/Case_11_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_11_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965419457814316</v>
+        <v>1.029144627041664</v>
       </c>
       <c r="D2">
-        <v>1.019151136735203</v>
+        <v>1.044738150405383</v>
       </c>
       <c r="E2">
-        <v>1.003450327451024</v>
+        <v>1.041037784012661</v>
       </c>
       <c r="F2">
-        <v>1.01512423235515</v>
+        <v>1.050561386917354</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04623565358964</v>
+        <v>1.056727113391517</v>
       </c>
       <c r="J2">
-        <v>1.018826580902894</v>
+        <v>1.050487248355143</v>
       </c>
       <c r="K2">
-        <v>1.030349960651664</v>
+        <v>1.055607506058857</v>
       </c>
       <c r="L2">
-        <v>1.014861802115467</v>
+        <v>1.051953537087472</v>
       </c>
       <c r="M2">
-        <v>1.026376808251998</v>
+        <v>1.061358551079429</v>
       </c>
       <c r="N2">
-        <v>1.020273431508816</v>
+        <v>1.020245901176967</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029447778653725</v>
+        <v>1.057133380412121</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03253023336338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050398125554123</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.014188824408834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000758689508925</v>
+        <v>1.032799746267659</v>
       </c>
       <c r="D3">
-        <v>1.022047928301003</v>
+        <v>1.047195094712063</v>
       </c>
       <c r="E3">
-        <v>1.006792573823085</v>
+        <v>1.043857341098174</v>
       </c>
       <c r="F3">
-        <v>1.018358442132083</v>
+        <v>1.053191801511458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047210015663159</v>
+        <v>1.057642288422742</v>
       </c>
       <c r="J3">
-        <v>1.021228693229426</v>
+        <v>1.052434510472468</v>
       </c>
       <c r="K3">
-        <v>1.03240626474237</v>
+        <v>1.057257721385063</v>
       </c>
       <c r="L3">
-        <v>1.017339273934035</v>
+        <v>1.053958204165607</v>
       </c>
       <c r="M3">
-        <v>1.028761690709446</v>
+        <v>1.063186481660042</v>
       </c>
       <c r="N3">
-        <v>1.02267895511038</v>
+        <v>1.020786013244353</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031335280184357</v>
+        <v>1.058580031144391</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033981558642871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.051562039490831</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.01405910150581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003430637525529</v>
+        <v>1.035126755577383</v>
       </c>
       <c r="D4">
-        <v>1.023883678923017</v>
+        <v>1.048763569069926</v>
       </c>
       <c r="E4">
-        <v>1.008916251214829</v>
+        <v>1.045657988270062</v>
       </c>
       <c r="F4">
-        <v>1.020416783855687</v>
+        <v>1.054872491936907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047811961979347</v>
+        <v>1.058218098937593</v>
       </c>
       <c r="J4">
-        <v>1.022746992499223</v>
+        <v>1.053672683457315</v>
       </c>
       <c r="K4">
-        <v>1.033702147523078</v>
+        <v>1.058307035983395</v>
       </c>
       <c r="L4">
-        <v>1.018908242971192</v>
+        <v>1.05523490493917</v>
       </c>
       <c r="M4">
-        <v>1.030274886215035</v>
+        <v>1.064350863812353</v>
       </c>
       <c r="N4">
-        <v>1.024199410539291</v>
+        <v>1.021129328871691</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032532887428054</v>
+        <v>1.059501538622331</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034898776109782</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052304930651603</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.013972908507553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004543928218046</v>
+        <v>1.036100160185311</v>
       </c>
       <c r="D5">
-        <v>1.024650360973909</v>
+        <v>1.049422807933986</v>
       </c>
       <c r="E5">
-        <v>1.0098029299847</v>
+        <v>1.046413139294303</v>
       </c>
       <c r="F5">
-        <v>1.021275472865804</v>
+        <v>1.055577646868185</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048060306945694</v>
+        <v>1.058459072277769</v>
       </c>
       <c r="J5">
-        <v>1.02337992105097</v>
+        <v>1.054192005539437</v>
       </c>
       <c r="K5">
-        <v>1.034242732407473</v>
+        <v>1.058748623282724</v>
       </c>
       <c r="L5">
-        <v>1.019562795081617</v>
+        <v>1.055770515560808</v>
       </c>
       <c r="M5">
-        <v>1.03090538993626</v>
+        <v>1.064839603077159</v>
       </c>
       <c r="N5">
-        <v>1.024833237922181</v>
+        <v>1.021273722904312</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033031894268319</v>
+        <v>1.059888333030389</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035288237304318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.052624901349115</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.013936132679493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004733869626131</v>
+        <v>1.036267949692233</v>
       </c>
       <c r="D6">
-        <v>1.024783361412827</v>
+        <v>1.049539095316384</v>
       </c>
       <c r="E6">
-        <v>1.009954848702671</v>
+        <v>1.046544127624973</v>
       </c>
       <c r="F6">
-        <v>1.021420819059379</v>
+        <v>1.055700112893708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048104052341561</v>
+        <v>1.058502671246774</v>
       </c>
       <c r="J6">
-        <v>1.023489385998096</v>
+        <v>1.05428365990703</v>
       </c>
       <c r="K6">
-        <v>1.034337769372891</v>
+        <v>1.058828342570104</v>
       </c>
       <c r="L6">
-        <v>1.019675761424216</v>
+        <v>1.055864638907449</v>
       </c>
       <c r="M6">
-        <v>1.031012462534905</v>
+        <v>1.064925726346524</v>
       </c>
       <c r="N6">
-        <v>1.024942858322087</v>
+        <v>1.021299726311953</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033116635936106</v>
+        <v>1.059956492050107</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03536423698079</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.052690710654894</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.013929926150535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003455662488705</v>
+        <v>1.035161968462111</v>
       </c>
       <c r="D7">
-        <v>1.023906743848574</v>
+        <v>1.048795179968468</v>
       </c>
       <c r="E7">
-        <v>1.008937696769173</v>
+        <v>1.045688118496284</v>
       </c>
       <c r="F7">
-        <v>1.020432653630997</v>
+        <v>1.054900124349969</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047821808192686</v>
+        <v>1.058235193777308</v>
       </c>
       <c r="J7">
-        <v>1.022765324752749</v>
+        <v>1.053701297634672</v>
       </c>
       <c r="K7">
-        <v>1.033722042309833</v>
+        <v>1.05833549165512</v>
       </c>
       <c r="L7">
-        <v>1.01892646969556</v>
+        <v>1.055261882361371</v>
       </c>
       <c r="M7">
-        <v>1.030287652971014</v>
+        <v>1.064375409443917</v>
       </c>
       <c r="N7">
-        <v>1.02421776882672</v>
+        <v>1.021164820022787</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032542991572676</v>
+        <v>1.059520964348833</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034933087125513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052346772900344</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.013972419231085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979914172541663</v>
+        <v>1.03043242208823</v>
       </c>
       <c r="D8">
-        <v>1.020153790085605</v>
+        <v>1.045614296540056</v>
       </c>
       <c r="E8">
-        <v>1.004599936463662</v>
+        <v>1.042035326757238</v>
       </c>
       <c r="F8">
-        <v>1.016229909140058</v>
+        <v>1.051489594064277</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046578796604326</v>
+        <v>1.057066133738078</v>
       </c>
       <c r="J8">
-        <v>1.01965804509715</v>
+        <v>1.051193223969661</v>
       </c>
       <c r="K8">
-        <v>1.031067513871998</v>
+        <v>1.056209906911201</v>
       </c>
       <c r="L8">
-        <v>1.015717957134274</v>
+        <v>1.052674486484453</v>
       </c>
       <c r="M8">
-        <v>1.027194433754841</v>
+        <v>1.062014510364062</v>
       </c>
       <c r="N8">
-        <v>1.0211060764776</v>
+        <v>1.020523160967182</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030094884242435</v>
+        <v>1.057652516402923</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03306069682541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.050848810323958</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.014145450107504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9878925357796882</v>
+        <v>1.02174425237883</v>
       </c>
       <c r="D9">
-        <v>1.013213035834047</v>
+        <v>1.039792347599818</v>
       </c>
       <c r="E9">
-        <v>0.9966290554375548</v>
+        <v>1.035364658307055</v>
       </c>
       <c r="F9">
-        <v>1.008541506085888</v>
+        <v>1.045270517303885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044154603285711</v>
+        <v>1.054847909556244</v>
       </c>
       <c r="J9">
-        <v>1.013880205589475</v>
+        <v>1.046551858680887</v>
       </c>
       <c r="K9">
-        <v>1.026095317401418</v>
+        <v>1.052271203805315</v>
       </c>
       <c r="L9">
-        <v>1.009777061655617</v>
+        <v>1.047908890803837</v>
       </c>
       <c r="M9">
-        <v>1.021497506863243</v>
+        <v>1.057669458357163</v>
       </c>
       <c r="N9">
-        <v>1.015320031775097</v>
+        <v>1.019243525730309</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025586067501517</v>
+        <v>1.054213770666641</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029541752623534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048060578478799</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.014433126537098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9809456340286865</v>
+        <v>1.015837559352</v>
       </c>
       <c r="D10">
-        <v>1.008450915404839</v>
+        <v>1.03588482111567</v>
       </c>
       <c r="E10">
-        <v>0.9911950500727045</v>
+        <v>1.030890469640291</v>
       </c>
       <c r="F10">
-        <v>1.003548524086912</v>
+        <v>1.041130201099364</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042425225278415</v>
+        <v>1.053342579998882</v>
       </c>
       <c r="J10">
-        <v>1.009936185445665</v>
+        <v>1.043436604740817</v>
       </c>
       <c r="K10">
-        <v>1.022669244164364</v>
+        <v>1.049635043402273</v>
       </c>
       <c r="L10">
-        <v>1.005725121482776</v>
+        <v>1.044723520881805</v>
       </c>
       <c r="M10">
-        <v>1.017854003054644</v>
+        <v>1.054794530392659</v>
       </c>
       <c r="N10">
-        <v>1.011370410670298</v>
+        <v>1.018503473780632</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022754849967467</v>
+        <v>1.051989105456665</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027136237218653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046214917656599</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.014613374375885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9788093521063566</v>
+        <v>1.013807934741656</v>
       </c>
       <c r="D11">
-        <v>1.007024249181742</v>
+        <v>1.034709438689458</v>
       </c>
       <c r="E11">
-        <v>0.9896412512355445</v>
+        <v>1.029556859528781</v>
       </c>
       <c r="F11">
-        <v>1.003962324932999</v>
+        <v>1.040130774495806</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041986962784103</v>
+        <v>1.053027667217175</v>
       </c>
       <c r="J11">
-        <v>1.00909105317253</v>
+        <v>1.042617359370469</v>
       </c>
       <c r="K11">
-        <v>1.021814903159303</v>
+        <v>1.0490051844619</v>
       </c>
       <c r="L11">
-        <v>1.004761198549546</v>
+        <v>1.04394210314453</v>
       </c>
       <c r="M11">
-        <v>1.018809902471057</v>
+        <v>1.054333590466612</v>
       </c>
       <c r="N11">
-        <v>1.010524078212397</v>
+        <v>1.018562824890064</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023954996418782</v>
+        <v>1.05205380871623</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02656538407692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045805127351606</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.014688696880693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9783210038107645</v>
+        <v>1.01324093072779</v>
       </c>
       <c r="D12">
-        <v>1.00671016856212</v>
+        <v>1.034449587962896</v>
       </c>
       <c r="E12">
-        <v>0.9893409120026595</v>
+        <v>1.029273388555796</v>
       </c>
       <c r="F12">
-        <v>1.004986342546891</v>
+        <v>1.040042404615809</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041931552177484</v>
+        <v>1.053028019440588</v>
       </c>
       <c r="J12">
-        <v>1.009072064803313</v>
+        <v>1.042495293045119</v>
       </c>
       <c r="K12">
-        <v>1.021709931656669</v>
+        <v>1.048945267093185</v>
       </c>
       <c r="L12">
-        <v>1.00467521268005</v>
+        <v>1.043860454356392</v>
       </c>
       <c r="M12">
-        <v>1.020018631578249</v>
+        <v>1.054440664337702</v>
       </c>
       <c r="N12">
-        <v>1.010505062877517</v>
+        <v>1.018673756732098</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025242126806068</v>
+        <v>1.052460324901011</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026491164235967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045762765826271</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.014716266200973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790776718135854</v>
+        <v>1.013766874255483</v>
       </c>
       <c r="D13">
-        <v>1.007243923209274</v>
+        <v>1.034887720078827</v>
       </c>
       <c r="E13">
-        <v>0.9899918461863296</v>
+        <v>1.029785206045827</v>
       </c>
       <c r="F13">
-        <v>1.006573221451993</v>
+        <v>1.040663077738803</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042179201978626</v>
+        <v>1.053280432193861</v>
       </c>
       <c r="J13">
-        <v>1.009698707771767</v>
+        <v>1.042909276321937</v>
       </c>
       <c r="K13">
-        <v>1.022190072346114</v>
+        <v>1.049333822016318</v>
       </c>
       <c r="L13">
-        <v>1.005268643744872</v>
+        <v>1.044320986667803</v>
       </c>
       <c r="M13">
-        <v>1.021531948559398</v>
+        <v>1.055009047372142</v>
       </c>
       <c r="N13">
-        <v>1.011132595750864</v>
+        <v>1.018801660259926</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026718595082089</v>
+        <v>1.053182973437079</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026828126026719</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046034778909745</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.014710370976007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801585894026571</v>
+        <v>1.014632541872686</v>
       </c>
       <c r="D14">
-        <v>1.007993784435736</v>
+        <v>1.035513632022065</v>
       </c>
       <c r="E14">
-        <v>0.9908674282469805</v>
+        <v>1.030505830701505</v>
       </c>
       <c r="F14">
-        <v>1.007910270446861</v>
+        <v>1.041420928429262</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042485572980742</v>
+        <v>1.053572803665213</v>
       </c>
       <c r="J14">
-        <v>1.010417612454453</v>
+        <v>1.043443813438115</v>
       </c>
       <c r="K14">
-        <v>1.02278328119306</v>
+        <v>1.049811646183035</v>
       </c>
       <c r="L14">
-        <v>1.005980849341562</v>
+        <v>1.044890749857727</v>
       </c>
       <c r="M14">
-        <v>1.022701311951209</v>
+        <v>1.055617815049496</v>
       </c>
       <c r="N14">
-        <v>1.011852521360659</v>
+        <v>1.018900919001739</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027817929151773</v>
+        <v>1.053835641868745</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027248993304331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046374140422542</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.014690984104699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9807066164030492</v>
+        <v>1.015088525038826</v>
       </c>
       <c r="D15">
-        <v>1.008372656798901</v>
+        <v>1.035827315113218</v>
       </c>
       <c r="E15">
-        <v>0.9913007716196004</v>
+        <v>1.030863869465742</v>
       </c>
       <c r="F15">
-        <v>1.008408517367875</v>
+        <v>1.041773177049113</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042632119974928</v>
+        <v>1.053704848589221</v>
       </c>
       <c r="J15">
-        <v>1.010748550027167</v>
+        <v>1.043699424868671</v>
       </c>
       <c r="K15">
-        <v>1.023067325661603</v>
+        <v>1.050035439245369</v>
       </c>
       <c r="L15">
-        <v>1.006315777037109</v>
+        <v>1.045157471282233</v>
       </c>
       <c r="M15">
-        <v>1.02310252821159</v>
+        <v>1.055880288075368</v>
       </c>
       <c r="N15">
-        <v>1.012183928902685</v>
+        <v>1.018934644970832</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028172899301284</v>
+        <v>1.054080268028174</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027455760172196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.046538707558979</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.014678985063874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9834882876565243</v>
+        <v>1.017429154071514</v>
       </c>
       <c r="D16">
-        <v>1.010279116390844</v>
+        <v>1.037356142557517</v>
       </c>
       <c r="E16">
-        <v>0.9934574179198945</v>
+        <v>1.032611286747579</v>
       </c>
       <c r="F16">
-        <v>1.01025491878917</v>
+        <v>1.043386116725879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04333088162827</v>
+        <v>1.054277851485111</v>
       </c>
       <c r="J16">
-        <v>1.012293747929101</v>
+        <v>1.044893298019459</v>
       </c>
       <c r="K16">
-        <v>1.024429085679848</v>
+        <v>1.051047362775821</v>
       </c>
       <c r="L16">
-        <v>1.00790878568229</v>
+        <v>1.046380657926284</v>
       </c>
       <c r="M16">
-        <v>1.024405312292209</v>
+        <v>1.056979335558435</v>
       </c>
       <c r="N16">
-        <v>1.013731321162876</v>
+        <v>1.01904746075138</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029163563783365</v>
+        <v>1.054910636935596</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028421788146462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047257562145455</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.014608318098897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9850656019354072</v>
+        <v>1.018783116232347</v>
       </c>
       <c r="D17">
-        <v>1.011356001436675</v>
+        <v>1.038210135313882</v>
       </c>
       <c r="E17">
-        <v>0.994663292644118</v>
+        <v>1.033584190931294</v>
       </c>
       <c r="F17">
-        <v>1.010977474234435</v>
+        <v>1.044231008612486</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043706158139549</v>
+        <v>1.054567195789129</v>
       </c>
       <c r="J17">
-        <v>1.013110036306088</v>
+        <v>1.045538143168298</v>
       </c>
       <c r="K17">
-        <v>1.025167806049617</v>
+        <v>1.051579805270026</v>
       </c>
       <c r="L17">
-        <v>1.008765545209506</v>
+        <v>1.047027922079916</v>
       </c>
       <c r="M17">
-        <v>1.02479572783493</v>
+        <v>1.057505541954521</v>
       </c>
       <c r="N17">
-        <v>1.014548768762988</v>
+        <v>1.019111599794282</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029341955692794</v>
+        <v>1.055198930690525</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028946711996503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.047636797958634</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.014563261275581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857097099411911</v>
+        <v>1.019386346989389</v>
       </c>
       <c r="D18">
-        <v>1.011782934003529</v>
+        <v>1.038529319669921</v>
       </c>
       <c r="E18">
-        <v>0.9951191367144538</v>
+        <v>1.033945008714268</v>
       </c>
       <c r="F18">
-        <v>1.01062807494972</v>
+        <v>1.044446403865731</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043822176583153</v>
+        <v>1.054618597738901</v>
       </c>
       <c r="J18">
-        <v>1.013323674116837</v>
+        <v>1.045736450881039</v>
       </c>
       <c r="K18">
-        <v>1.025401331690427</v>
+        <v>1.051714553531904</v>
       </c>
       <c r="L18">
-        <v>1.009022655452827</v>
+        <v>1.047202448356471</v>
       </c>
       <c r="M18">
-        <v>1.024265841538777</v>
+        <v>1.057539636537024</v>
       </c>
       <c r="N18">
-        <v>1.014762709963933</v>
+        <v>1.019092792795275</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028682852945997</v>
+        <v>1.05499112099298</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029100074218453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.047719492248468</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.014536717324443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854765676822593</v>
+        <v>1.019324703739334</v>
       </c>
       <c r="D19">
-        <v>1.011605886599829</v>
+        <v>1.038384818420594</v>
       </c>
       <c r="E19">
-        <v>0.9948681904876147</v>
+        <v>1.033764581514661</v>
       </c>
       <c r="F19">
-        <v>1.009198257478549</v>
+        <v>1.044104204772102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043698250294269</v>
+        <v>1.054468797091596</v>
       </c>
       <c r="J19">
-        <v>1.012961798363457</v>
+        <v>1.045546532267397</v>
       </c>
       <c r="K19">
-        <v>1.02516376449289</v>
+        <v>1.051511143156227</v>
       </c>
       <c r="L19">
-        <v>1.008711074927215</v>
+        <v>1.046963320274968</v>
       </c>
       <c r="M19">
-        <v>1.022796381627491</v>
+        <v>1.057142021264822</v>
       </c>
       <c r="N19">
-        <v>1.014400320305475</v>
+        <v>1.018989400321576</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027191194268974</v>
+        <v>1.054355785788012</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028938562085439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.047582592330303</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014527621879485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9827773403463462</v>
+        <v>1.017377317101512</v>
       </c>
       <c r="D20">
-        <v>1.009718823573317</v>
+        <v>1.036916965827262</v>
       </c>
       <c r="E20">
-        <v>0.992630169089305</v>
+        <v>1.032058363946867</v>
       </c>
       <c r="F20">
-        <v>1.00486530043932</v>
+        <v>1.042215075424361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042896088892368</v>
+        <v>1.05374597741693</v>
       </c>
       <c r="J20">
-        <v>1.010988699204327</v>
+        <v>1.044254425209964</v>
       </c>
       <c r="K20">
-        <v>1.023592905123163</v>
+        <v>1.050340316004911</v>
       </c>
       <c r="L20">
-        <v>1.006803857906452</v>
+        <v>1.045559993489975</v>
       </c>
       <c r="M20">
-        <v>1.018823135510778</v>
+        <v>1.055554130268242</v>
       </c>
       <c r="N20">
-        <v>1.012424419119222</v>
+        <v>1.018633402882595</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023511078631529</v>
+        <v>1.052579859040199</v>
       </c>
       <c r="Q20">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R20">
-        <v>1.02783185205564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.046759050775278</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.014568122651367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9773551819570923</v>
+        <v>1.012974673642161</v>
       </c>
       <c r="D21">
-        <v>1.005995887343364</v>
+        <v>1.033997275405066</v>
       </c>
       <c r="E21">
-        <v>0.9883807082426688</v>
+        <v>1.028714030230829</v>
       </c>
       <c r="F21">
-        <v>1.000606367784193</v>
+        <v>1.039064252499794</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041497268741536</v>
+        <v>1.052611144143812</v>
       </c>
       <c r="J21">
-        <v>1.007831161278016</v>
+        <v>1.041939769710745</v>
       </c>
       <c r="K21">
-        <v>1.020864549261793</v>
+        <v>1.048361967895487</v>
       </c>
       <c r="L21">
-        <v>1.003585606781055</v>
+        <v>1.043171088605386</v>
       </c>
       <c r="M21">
-        <v>1.015576261441367</v>
+        <v>1.053341500525456</v>
       </c>
       <c r="N21">
-        <v>1.009262397126881</v>
+        <v>1.018411073662651</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02089968290621</v>
+        <v>1.050788538022258</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025906037969641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.045363838934024</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.014696704334408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9739143081919217</v>
+        <v>1.010171479466244</v>
       </c>
       <c r="D22">
-        <v>1.003633354959796</v>
+        <v>1.03214748558415</v>
       </c>
       <c r="E22">
-        <v>0.9856972876218609</v>
+        <v>1.026602275242517</v>
       </c>
       <c r="F22">
-        <v>0.998041119083427</v>
+        <v>1.037090692034794</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040597757299131</v>
+        <v>1.051888405248766</v>
       </c>
       <c r="J22">
-        <v>1.005843713736808</v>
+        <v>1.040471638142464</v>
       </c>
       <c r="K22">
-        <v>1.019133176374479</v>
+        <v>1.047107907704424</v>
       </c>
       <c r="L22">
-        <v>1.001557510393331</v>
+        <v>1.041664536095521</v>
       </c>
       <c r="M22">
-        <v>1.013651481924546</v>
+        <v>1.051961524596871</v>
       </c>
       <c r="N22">
-        <v>1.007272127182201</v>
+        <v>1.018265744370444</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019376304285691</v>
+        <v>1.049696394102911</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024668188107299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.044462595210663</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014775183843001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9757375158327574</v>
+        <v>1.011634718850859</v>
       </c>
       <c r="D23">
-        <v>1.004880503507126</v>
+        <v>1.033104081184841</v>
       </c>
       <c r="E23">
-        <v>0.9871166169311361</v>
+        <v>1.02769953658427</v>
       </c>
       <c r="F23">
-        <v>0.9994019041139025</v>
+        <v>1.038117364699467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041072792475324</v>
+        <v>1.052256313958821</v>
       </c>
       <c r="J23">
-        <v>1.006893727239763</v>
+        <v>1.04122605081765</v>
       </c>
       <c r="K23">
-        <v>1.020045307086762</v>
+        <v>1.047748769908378</v>
       </c>
       <c r="L23">
-        <v>1.002628848018751</v>
+        <v>1.042440947990699</v>
       </c>
       <c r="M23">
-        <v>1.014672132263515</v>
+        <v>1.052673499737165</v>
       </c>
       <c r="N23">
-        <v>1.008323631824769</v>
+        <v>1.018293966264566</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020184104724026</v>
+        <v>1.050259867406577</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025303361206065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044905266321051</v>
+      </c>
+      <c r="S23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.014733804291172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9827584216314152</v>
+        <v>1.017382274862603</v>
       </c>
       <c r="D24">
-        <v>1.009695545076071</v>
+        <v>1.036896030145402</v>
       </c>
       <c r="E24">
-        <v>0.9926024433120246</v>
+        <v>1.032040549513633</v>
       </c>
       <c r="F24">
-        <v>1.004663068593595</v>
+        <v>1.042174563658362</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04287602852518</v>
+        <v>1.053721000504909</v>
       </c>
       <c r="J24">
-        <v>1.01093671573132</v>
+        <v>1.04422724554115</v>
       </c>
       <c r="K24">
-        <v>1.023554508868084</v>
+        <v>1.050304776001503</v>
       </c>
       <c r="L24">
-        <v>1.006760725809348</v>
+        <v>1.045527428334762</v>
       </c>
       <c r="M24">
-        <v>1.018608787407288</v>
+        <v>1.055499426358075</v>
       </c>
       <c r="N24">
-        <v>1.012372361823721</v>
+        <v>1.018614837432605</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02329978727201</v>
+        <v>1.052496365761075</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027776999578605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.046704288489869</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01456592681785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9905758006498974</v>
+        <v>1.024038400231003</v>
       </c>
       <c r="D25">
-        <v>1.015064612660737</v>
+        <v>1.041335026118938</v>
       </c>
       <c r="E25">
-        <v>0.9987436053724044</v>
+        <v>1.037122812618364</v>
       </c>
       <c r="F25">
-        <v>1.010570351469051</v>
+        <v>1.046910245422816</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044818269076671</v>
+        <v>1.055445673790102</v>
       </c>
       <c r="J25">
-        <v>1.015424543074733</v>
+        <v>1.047783000850077</v>
       </c>
       <c r="K25">
-        <v>1.027433485906839</v>
+        <v>1.05332385073781</v>
       </c>
       <c r="L25">
-        <v>1.011361456609465</v>
+        <v>1.049170935761672</v>
       </c>
       <c r="M25">
-        <v>1.023006762874746</v>
+        <v>1.058821508677173</v>
       </c>
       <c r="N25">
-        <v>1.016866562396722</v>
+        <v>1.019554686529201</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026780566801188</v>
+        <v>1.055125523781192</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030516794003226</v>
+        <v>1.048835736729606</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014360791955524</v>
       </c>
     </row>
   </sheetData>
